--- a/planificacion/Bitacoras/Bitacora No. 02.xlsx
+++ b/planificacion/Bitacoras/Bitacora No. 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollo\proyectos\Compubrandt\planificacion\Bitacoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE562D-E6E0-4019-9CD0-EFABAA4CE123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E03D38-B8EE-47D4-AAE6-77689087E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A684CEA4-9F06-481F-9FB8-051EF70D7C81}"/>
   </bookViews>
@@ -539,194 +539,194 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,6 +843,56 @@
         <a:xfrm>
           <a:off x="4685239" y="47625"/>
           <a:ext cx="702595" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>41124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5FAD8B-4B5A-435A-AED6-FD668949BE25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="12230100"/>
+          <a:ext cx="2200275" cy="1384149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1153,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496B6599-03EE-4C63-A1C5-E0A75F1F4E2F}">
   <dimension ref="B1:Y53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,294 +1229,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="22" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="66"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="66"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
     </row>
     <row r="9" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="44" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="50" t="s">
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="50">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="23">
         <v>79964591</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="44">
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28">
         <v>2</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="22" t="s">
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -1495,68 +1545,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="22" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="62" t="s">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -1585,100 +1635,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="55" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55" t="s">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55" t="s">
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="22"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="20"/>
     </row>
     <row r="17" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="22"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="20"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -1707,72 +1757,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="50" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="50" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="44" t="s">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="54"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="30"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="45">
         <v>1030658869</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50" t="s">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52" t="s">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="54"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="30"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -1801,64 +1851,64 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="50" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41">
+      <c r="B23" s="31">
         <v>2281566</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="41" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="43"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="33"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -1887,284 +1937,284 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="44" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="44" t="s">
+      <c r="L25" s="47"/>
+      <c r="M25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="44" t="s">
+      <c r="N25" s="47"/>
+      <c r="O25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="44" t="s">
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="46"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="48"/>
     </row>
     <row r="26" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="29">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="55">
         <v>45566</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="29">
+      <c r="L26" s="50"/>
+      <c r="M26" s="55">
         <v>45580</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="21" t="s">
+      <c r="N26" s="50"/>
+      <c r="O26" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="22" t="s">
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
     </row>
     <row r="27" spans="2:25" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="29">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="55">
         <v>45566</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="29">
+      <c r="L28" s="50"/>
+      <c r="M28" s="55">
         <v>45580</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="23" t="s">
+      <c r="N28" s="50"/>
+      <c r="O28" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="33" t="s">
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="61"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="38"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="64"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="29">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="55">
         <v>45566</v>
       </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="29">
+      <c r="L30" s="50"/>
+      <c r="M30" s="55">
         <v>45580</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="64"/>
     </row>
     <row r="31" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="40"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="67"/>
     </row>
     <row r="32" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="29">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="55">
         <v>45566</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="29">
+      <c r="L32" s="50"/>
+      <c r="M32" s="55">
         <v>45580</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="21" t="s">
+      <c r="N32" s="50"/>
+      <c r="O32" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="22" t="s">
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
     </row>
     <row r="33" spans="2:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
     </row>
     <row r="34" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2175,32 +2225,32 @@
     <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
     </row>
     <row r="43" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
@@ -2256,14 +2306,14 @@
     </row>
     <row r="45" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2275,45 +2325,45 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="18">
+      <c r="T45" s="71">
         <v>45184</v>
       </c>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
       <c r="R46" s="9"/>
       <c r="S46" s="8"/>
-      <c r="T46" s="12" t="s">
+      <c r="T46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
       <c r="Y46" s="8"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
@@ -2343,25 +2393,25 @@
       <c r="Y47" s="8"/>
     </row>
     <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2381,120 +2431,154 @@
       <c r="Y49" s="10"/>
     </row>
     <row r="50" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="14" t="s">
+      <c r="S50" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
+      <c r="V50" s="70"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="70"/>
+      <c r="Y50" s="70"/>
     </row>
     <row r="51" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
     </row>
     <row r="52" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="70"/>
+      <c r="Y52" s="70"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="70"/>
+      <c r="Y53" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B1:V2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B52:Y53"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="S50:Y50"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="B42:Y42"/>
+    <mergeCell ref="O32:T33"/>
+    <mergeCell ref="U32:Y33"/>
+    <mergeCell ref="B30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="B32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="B26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="O26:T27"/>
+    <mergeCell ref="U26:Y27"/>
+    <mergeCell ref="B28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="O28:T31"/>
+    <mergeCell ref="U28:Y31"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:Y23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:Y22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:U17"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="Q13:Y13"/>
@@ -2507,60 +2591,26 @@
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="V16:X17"/>
     <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:Y22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="O28:T31"/>
-    <mergeCell ref="U28:Y31"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="O26:T27"/>
-    <mergeCell ref="U26:Y27"/>
-    <mergeCell ref="B42:Y42"/>
-    <mergeCell ref="O32:T33"/>
-    <mergeCell ref="U32:Y33"/>
-    <mergeCell ref="B30:J31"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="B32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="B52:Y53"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="T45:X45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="S50:Y50"/>
-    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B1:V2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B4:Y4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q13" r:id="rId1" xr:uid="{00AEDBD8-A72D-4D92-9005-0A6B028B356C}"/>
